--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/19.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/19.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2961155318035049</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.604482573234181</v>
+        <v>-1.60243634837649</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1471213203794536</v>
+        <v>0.1491643971989018</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.244104280258075</v>
+        <v>-0.2446315766637107</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3125590855743497</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.538693296021176</v>
+        <v>-1.535701872681144</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09697936725129885</v>
+        <v>0.09835663398243695</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2475718443823004</v>
+        <v>-0.248072382462874</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3315906091018198</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.496513518618121</v>
+        <v>-1.492189688091908</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09310570619377787</v>
+        <v>0.09429881268772378</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2572064154237819</v>
+        <v>-0.2577667662309649</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3392694846100033</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.56602299002432</v>
+        <v>-1.561744019043064</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1200623576651734</v>
+        <v>0.1210539897115929</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2352614408346077</v>
+        <v>-0.2353322716950663</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3354526711761355</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.599072669514271</v>
+        <v>-1.595530339481783</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1062157114550913</v>
+        <v>0.1065619956617774</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2607101819877972</v>
+        <v>-0.2608959162441107</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3294945817433042</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.485334834818643</v>
+        <v>-1.482072680189748</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1200135630724131</v>
+        <v>0.1198482910646766</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2525945393983709</v>
+        <v>-0.2527346271001666</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3306898168889587</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.268938686022225</v>
+        <v>-1.266694921764811</v>
       </c>
       <c r="F8" t="n">
-        <v>0.158126862075588</v>
+        <v>0.1571777285454437</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2580343494815861</v>
+        <v>-0.2583837817265148</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3376634940409124</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.008322831041546</v>
+        <v>-1.007618457484764</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1806227433572174</v>
+        <v>0.1791510354788013</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2547651117666446</v>
+        <v>-0.2553112964017359</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.344194926451456</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5941991872368952</v>
+        <v>-0.5942731661355964</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1702043107933282</v>
+        <v>0.1683973368420749</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1641016103797249</v>
+        <v>-0.1641614231063344</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3482505413457089</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2186083185312465</v>
+        <v>-0.2198612377518018</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1401279534235146</v>
+        <v>0.1383587559311726</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1277701010218625</v>
+        <v>-0.1281085151329421</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.348506262217118</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2437298919875259</v>
+        <v>0.2419386582274857</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1031070236905224</v>
+        <v>0.1023278842254786</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03821785713458112</v>
+        <v>-0.03835794483637688</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.337617548479992</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7701479949535706</v>
+        <v>0.7672470777130134</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.007703922449045991</v>
+        <v>-0.00738282254830065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05564562512594279</v>
+        <v>0.0554331325445672</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.3067547697016205</v>
       </c>
       <c r="E14" t="n">
-        <v>1.316253929088844</v>
+        <v>1.312676183626128</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2309454804040012</v>
+        <v>-0.231200471501652</v>
       </c>
       <c r="G14" t="n">
-        <v>0.159540331246516</v>
+        <v>0.1592507117281967</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.2533476849513528</v>
       </c>
       <c r="E15" t="n">
-        <v>1.878107924532731</v>
+        <v>1.874353888928429</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4429973364256299</v>
+        <v>-0.4431468682421535</v>
       </c>
       <c r="G15" t="n">
-        <v>0.293062799287332</v>
+        <v>0.2927999380940748</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.1782659269384083</v>
       </c>
       <c r="E16" t="n">
-        <v>2.351689353634954</v>
+        <v>2.347138864355274</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6688108416247904</v>
+        <v>-0.6683260437354298</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4368872224770611</v>
+        <v>0.4367849112341765</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.08838937135227648</v>
       </c>
       <c r="E17" t="n">
-        <v>2.808450814406958</v>
+        <v>2.80317627633148</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8838360197665561</v>
+        <v>-0.8824036623661725</v>
       </c>
       <c r="G17" t="n">
-        <v>0.556034173883038</v>
+        <v>0.5557335362308695</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.00394559960694469</v>
       </c>
       <c r="E18" t="n">
-        <v>3.232348329945325</v>
+        <v>3.226976202684326</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.211579068213346</v>
+        <v>-1.210233281864634</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6777436284184923</v>
+        <v>0.677307625121892</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.09185214047779036</v>
       </c>
       <c r="E19" t="n">
-        <v>3.606750814214392</v>
+        <v>3.60142433350791</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.511151109436657</v>
+        <v>-1.509300062950007</v>
       </c>
       <c r="G19" t="n">
-        <v>0.838510793429902</v>
+        <v>0.838170805299701</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.1779745473648012</v>
       </c>
       <c r="E20" t="n">
-        <v>3.735496134222061</v>
+        <v>3.728337495258385</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.846214920816616</v>
+        <v>-1.844608634303329</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014070590143296</v>
+        <v>1.013939946556228</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.2671179958459843</v>
       </c>
       <c r="E21" t="n">
-        <v>3.986146087136225</v>
+        <v>3.978836342336904</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.082594029367508</v>
+        <v>-2.080857886276713</v>
       </c>
       <c r="G21" t="n">
-        <v>1.181258179150491</v>
+        <v>1.181362064412496</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.3599723104658144</v>
       </c>
       <c r="E22" t="n">
-        <v>4.190740240561131</v>
+        <v>4.183408459494112</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.376842737922579</v>
+        <v>-2.375945547023438</v>
       </c>
       <c r="G22" t="n">
-        <v>1.321424581902317</v>
+        <v>1.321490690705412</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.4538491127350228</v>
       </c>
       <c r="E23" t="n">
-        <v>4.414899451663804</v>
+        <v>4.40810598513627</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.509748977477406</v>
+        <v>-2.508450411702333</v>
       </c>
       <c r="G23" t="n">
-        <v>1.491361982314424</v>
+        <v>1.491890852739181</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.5453452624048958</v>
       </c>
       <c r="E24" t="n">
-        <v>4.54279480134597</v>
+        <v>4.536043833334712</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.625121431030504</v>
+        <v>-2.62368828662056</v>
       </c>
       <c r="G24" t="n">
-        <v>1.594976513031406</v>
+        <v>1.5955746402975</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6318469791561757</v>
       </c>
       <c r="E25" t="n">
-        <v>4.68268732477069</v>
+        <v>4.676628925172804</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.81938057490495</v>
+        <v>-2.818919387302409</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658140326350081</v>
+        <v>1.658751045769146</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7124483567489682</v>
       </c>
       <c r="E26" t="n">
-        <v>4.794337223101912</v>
+        <v>4.789122497753042</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.909061101350617</v>
+        <v>-2.908706160038764</v>
       </c>
       <c r="G26" t="n">
-        <v>1.700873371474274</v>
+        <v>1.701721767780655</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7854767101977538</v>
       </c>
       <c r="E27" t="n">
-        <v>4.901590886027341</v>
+        <v>4.89787462688195</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980764755411909</v>
+        <v>-2.980954424716026</v>
       </c>
       <c r="G27" t="n">
-        <v>1.75053367475131</v>
+        <v>1.751723633207014</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8467793089050896</v>
       </c>
       <c r="E28" t="n">
-        <v>4.899742987578934</v>
+        <v>4.896524118475874</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.068281005565788</v>
+        <v>-3.069185279550975</v>
       </c>
       <c r="G28" t="n">
-        <v>1.790367376654067</v>
+        <v>1.792042132999131</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8925723781426852</v>
       </c>
       <c r="E29" t="n">
-        <v>4.906567934488893</v>
+        <v>4.904210053845185</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.080803901694857</v>
+        <v>-3.082201630674572</v>
       </c>
       <c r="G29" t="n">
-        <v>1.722245403103294</v>
+        <v>1.723577023279915</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9205445578944229</v>
       </c>
       <c r="E30" t="n">
-        <v>4.847899519780653</v>
+        <v>4.845615618035645</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.070081683440556</v>
+        <v>-3.071709219211981</v>
       </c>
       <c r="G30" t="n">
-        <v>1.686102776039988</v>
+        <v>1.68749735698146</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9311494671962147</v>
       </c>
       <c r="E31" t="n">
-        <v>4.721719850940705</v>
+        <v>4.719860934358448</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.056900060309224</v>
+        <v>-3.05927997722063</v>
       </c>
       <c r="G31" t="n">
-        <v>1.627261219228404</v>
+        <v>1.628695150647909</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9258971544056742</v>
       </c>
       <c r="E32" t="n">
-        <v>4.639316801902371</v>
+        <v>4.638298411530889</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.01745750215811</v>
+        <v>-3.02003417145968</v>
       </c>
       <c r="G32" t="n">
-        <v>1.589580775483587</v>
+        <v>1.591162664700494</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9080636723098249</v>
       </c>
       <c r="E33" t="n">
-        <v>4.558786835618386</v>
+        <v>4.559073307098462</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.948156588285483</v>
+        <v>-2.950852883040272</v>
       </c>
       <c r="G33" t="n">
-        <v>1.559180170174786</v>
+        <v>1.561360186657787</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8818759171025613</v>
       </c>
       <c r="E34" t="n">
-        <v>4.356366402599996</v>
+        <v>4.356402605039785</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.875219690242652</v>
+        <v>-2.878300045663038</v>
       </c>
       <c r="G34" t="n">
-        <v>1.508430645665809</v>
+        <v>1.510870375303825</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8493483129305589</v>
       </c>
       <c r="E35" t="n">
-        <v>4.131391849592488</v>
+        <v>4.131607490212106</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.84254226627489</v>
+        <v>-2.846094827431665</v>
       </c>
       <c r="G35" t="n">
-        <v>1.388174010779315</v>
+        <v>1.390275326306252</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8107280242359981</v>
       </c>
       <c r="E36" t="n">
-        <v>3.978839490375147</v>
+        <v>3.979720941083075</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.816675623044995</v>
+        <v>-2.820522525777454</v>
       </c>
       <c r="G36" t="n">
-        <v>1.360882093235082</v>
+        <v>1.363419412058619</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.766343482262123</v>
       </c>
       <c r="E37" t="n">
-        <v>3.782143764900928</v>
+        <v>3.783436034599516</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.753035668942126</v>
+        <v>-2.75685187830172</v>
       </c>
       <c r="G37" t="n">
-        <v>1.274410204768187</v>
+        <v>1.276668922207253</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7182242492593408</v>
       </c>
       <c r="E38" t="n">
-        <v>3.710083595508661</v>
+        <v>3.712523325146677</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.720890263437362</v>
+        <v>-2.725168447409058</v>
       </c>
       <c r="G38" t="n">
-        <v>1.2303770198498</v>
+        <v>1.233111091063499</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6675149685157283</v>
       </c>
       <c r="E39" t="n">
-        <v>3.499007631342239</v>
+        <v>3.501906974563675</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.737153028998641</v>
+        <v>-2.741923880955304</v>
       </c>
       <c r="G39" t="n">
-        <v>1.155005114226316</v>
+        <v>1.157764369745957</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6137618008523078</v>
       </c>
       <c r="E40" t="n">
-        <v>3.252667342782196</v>
+        <v>3.25573353203049</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.701303169491897</v>
+        <v>-2.706536783070221</v>
       </c>
       <c r="G40" t="n">
-        <v>1.090851242880343</v>
+        <v>1.093621516533832</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5588895377960337</v>
       </c>
       <c r="E41" t="n">
-        <v>3.080156421106762</v>
+        <v>3.08350593379689</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.640464969424943</v>
+        <v>-2.645630113171491</v>
       </c>
       <c r="G41" t="n">
-        <v>1.058659403811501</v>
+        <v>1.06156189507118</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5049886247199267</v>
       </c>
       <c r="E42" t="n">
-        <v>2.963849000195611</v>
+        <v>2.968319214500105</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.609490634146427</v>
+        <v>-2.614765172221906</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9748523297169676</v>
+        <v>0.9776005671027586</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4517632242067388</v>
       </c>
       <c r="E43" t="n">
-        <v>2.82930341972595</v>
+        <v>2.834387501487751</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.591917497666666</v>
+        <v>-2.597567439302575</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9228168315858881</v>
+        <v>0.9255288665318891</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3978364770930479</v>
       </c>
       <c r="E44" t="n">
-        <v>2.698622056199082</v>
+        <v>2.704545090152536</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.52081433190015</v>
+        <v>-2.52616363588389</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8586724043546425</v>
+        <v>0.8615072127921051</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3427690526153011</v>
       </c>
       <c r="E45" t="n">
-        <v>2.502247430625608</v>
+        <v>2.50813111410103</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.455630265039285</v>
+        <v>-2.460857582541125</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8282182823957168</v>
+        <v>0.8312403991086141</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2866674809197004</v>
       </c>
       <c r="E46" t="n">
-        <v>2.37530593653095</v>
+        <v>2.381675991914854</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.415632078138353</v>
+        <v>-2.421211975923364</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7650591911344053</v>
+        <v>0.7680277911971785</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2290455448155037</v>
       </c>
       <c r="E47" t="n">
-        <v>2.212083301690311</v>
+        <v>2.218470671284549</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.281876655267584</v>
+        <v>-2.286742735381086</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7088368021406661</v>
+        <v>0.7117786438783771</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.170065442127483</v>
       </c>
       <c r="E48" t="n">
-        <v>2.123017429711512</v>
+        <v>2.129979316285024</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.240368984029325</v>
+        <v>-2.245653753229092</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6600091549787975</v>
+        <v>0.6630155315004818</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1095937012926005</v>
       </c>
       <c r="E49" t="n">
-        <v>1.969267241942861</v>
+        <v>1.976462083346326</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.18836417927111</v>
+        <v>-2.193706400168805</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5856666578606446</v>
+        <v>0.5887108108412402</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.04715706421352641</v>
       </c>
       <c r="E50" t="n">
-        <v>1.875400611644094</v>
+        <v>1.882773317208266</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.140916159869062</v>
+        <v>-2.146267037871924</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5292254802090446</v>
+        <v>0.5321437116599361</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.01641731838437458</v>
       </c>
       <c r="E51" t="n">
-        <v>1.751393089191541</v>
+        <v>1.758743758488015</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.090612082771413</v>
+        <v>-2.096097539409146</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4845626876421376</v>
+        <v>0.4873864779457511</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.07983814420117075</v>
       </c>
       <c r="E52" t="n">
-        <v>1.63939375861539</v>
+        <v>1.646746001930986</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.974462850781953</v>
+        <v>-1.979007830994709</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4487836589958517</v>
+        <v>0.4516656880069532</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1419200612725036</v>
       </c>
       <c r="E53" t="n">
-        <v>1.595047343891865</v>
+        <v>1.602988270358827</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.914761092520579</v>
+        <v>-1.919349358259171</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3782597322659744</v>
+        <v>0.3807781628600554</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2022223678897145</v>
       </c>
       <c r="E54" t="n">
-        <v>1.550002064678482</v>
+        <v>1.558785091375339</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.903768142977415</v>
+        <v>-1.908632649071795</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3441035173337494</v>
+        <v>0.3465810234306767</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.260106471369294</v>
       </c>
       <c r="E55" t="n">
-        <v>1.493738751187588</v>
+        <v>1.503074258596023</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.839632372851337</v>
+        <v>-1.844108096222755</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3170099261988007</v>
+        <v>0.3196086317680681</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3148578931047845</v>
       </c>
       <c r="E56" t="n">
-        <v>1.435603928961469</v>
+        <v>1.445233777945586</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.778853198501432</v>
+        <v>-1.782855142117339</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2112326932091519</v>
+        <v>0.2130239269691921</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3667798488393489</v>
       </c>
       <c r="E57" t="n">
-        <v>1.443162368781955</v>
+        <v>1.453626447900362</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.77626157601821</v>
+        <v>-1.780313888245999</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2112846358401548</v>
+        <v>0.2133843773479699</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4158041940500652</v>
       </c>
       <c r="E58" t="n">
-        <v>1.42662572389357</v>
+        <v>1.437809129750411</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.761819950580277</v>
+        <v>-1.765719582953299</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2064744334054599</v>
+        <v>0.2087079665385856</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4613805901209874</v>
       </c>
       <c r="E59" t="n">
-        <v>1.413910797431703</v>
+        <v>1.425602611464724</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.726174713559301</v>
+        <v>-1.729605288234176</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1332542119207945</v>
+        <v>0.1351068324265654</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.503696761075736</v>
       </c>
       <c r="E60" t="n">
-        <v>1.444726943788528</v>
+        <v>1.457566217760977</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.757916383159451</v>
+        <v>-1.761650743524737</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1128155736307051</v>
+        <v>0.1147642093028753</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5412069353901133</v>
       </c>
       <c r="E61" t="n">
-        <v>1.440957167993012</v>
+        <v>1.454446511862559</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.776256853960847</v>
+        <v>-1.780020333679876</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1245262758931822</v>
+        <v>0.1267881413704913</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5729155067623948</v>
       </c>
       <c r="E62" t="n">
-        <v>1.449675659905897</v>
+        <v>1.464082656923162</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.819392847980092</v>
+        <v>-1.823441225160077</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03795207618340176</v>
+        <v>0.03972756975222894</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5997058385424762</v>
       </c>
       <c r="E63" t="n">
-        <v>1.434760254712452</v>
+        <v>1.449801581435601</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.781107193883134</v>
+        <v>-1.784661329059031</v>
       </c>
       <c r="G63" t="n">
-        <v>0.004055574406191448</v>
+        <v>0.005706720464435869</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6240844750084668</v>
       </c>
       <c r="E64" t="n">
-        <v>1.435142741358928</v>
+        <v>1.450684606162651</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.808557300349058</v>
+        <v>-1.812157082079473</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02598458052383218</v>
+        <v>-0.02438537709659068</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6487509122652673</v>
       </c>
       <c r="E65" t="n">
-        <v>1.443052187443464</v>
+        <v>1.459610868599547</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.834006041502247</v>
+        <v>-1.837612119309147</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02953556766148653</v>
+        <v>-0.02778840643684277</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6745647677679647</v>
       </c>
       <c r="E66" t="n">
-        <v>1.406978817221495</v>
+        <v>1.423295099432897</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.839748850266313</v>
+        <v>-1.843088918841713</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03803212287826764</v>
+        <v>-0.03626292538592567</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7003737856005252</v>
       </c>
       <c r="E67" t="n">
-        <v>1.371494130150892</v>
+        <v>1.388303080347262</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.85206476288093</v>
+        <v>-1.855130952129224</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05698646113697053</v>
+        <v>-0.05524559598881196</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7246769205732564</v>
       </c>
       <c r="E68" t="n">
-        <v>1.321182182957637</v>
+        <v>1.338124924779317</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.882500783619961</v>
+        <v>-1.885305685694119</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06405380699161062</v>
+        <v>-0.06230664576696685</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7462328659784658</v>
       </c>
       <c r="E69" t="n">
-        <v>1.218962233182127</v>
+        <v>1.23515731592119</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.904138037470921</v>
+        <v>-1.906836693254391</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08642219272441469</v>
+        <v>-0.08469391972922653</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7624305302422169</v>
       </c>
       <c r="E70" t="n">
-        <v>1.234373454398782</v>
+        <v>1.251229625168791</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.90992177073214</v>
+        <v>-1.912171044056479</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05594288645954817</v>
+        <v>-0.05388564346800817</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7698760612742023</v>
       </c>
       <c r="E71" t="n">
-        <v>1.227307682563264</v>
+        <v>1.244163853333273</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.94520970541258</v>
+        <v>-1.947080427138246</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07562914360965588</v>
+        <v>-0.07348532956644434</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7661484052237053</v>
       </c>
       <c r="E72" t="n">
-        <v>1.211026028772529</v>
+        <v>1.227995528919272</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.974680065420693</v>
+        <v>-1.976439818798307</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1101741412648421</v>
+        <v>-0.1082774482236747</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7498101702174783</v>
       </c>
       <c r="E73" t="n">
-        <v>1.215856693455801</v>
+        <v>1.232955263170491</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.974604512502871</v>
+        <v>-1.976254871551554</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09774726030217314</v>
+        <v>-0.09572307171218045</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7210824861235914</v>
       </c>
       <c r="E74" t="n">
-        <v>1.210756871502787</v>
+        <v>1.227997102938393</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.983141992216806</v>
+        <v>-1.984507453804534</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07930605227701427</v>
+        <v>-0.07696233780539756</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6813501509224928</v>
       </c>
       <c r="E75" t="n">
-        <v>1.156626353921256</v>
+        <v>1.173240125746585</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.01585719264348</v>
+        <v>-2.017218719183405</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.05162220397157778</v>
+        <v>-0.04910377337749668</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6329065078755901</v>
       </c>
       <c r="E76" t="n">
-        <v>1.192978325527696</v>
+        <v>1.209458305727714</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.019973252645681</v>
+        <v>-2.020949144500888</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.03200992572017121</v>
+        <v>-0.02930261283153403</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5795855914922824</v>
       </c>
       <c r="E77" t="n">
-        <v>1.130404769379508</v>
+        <v>1.145954504278837</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.017368250999928</v>
+        <v>-2.018320532568315</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.03338561843218801</v>
+        <v>-0.03082783736007439</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5249775629707537</v>
       </c>
       <c r="E78" t="n">
-        <v>1.151680785842129</v>
+        <v>1.166689058163731</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.028132180760943</v>
+        <v>-2.029001039315901</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02795525246370064</v>
+        <v>-0.02543209981225564</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4699045258355352</v>
       </c>
       <c r="E79" t="n">
-        <v>1.140018878172413</v>
+        <v>1.154172458111148</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.004613187050468</v>
+        <v>-2.00557097768578</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04922182481159423</v>
+        <v>-0.04691588679888872</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4147599021089158</v>
       </c>
       <c r="E80" t="n">
-        <v>1.122407178224179</v>
+        <v>1.135065439997679</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.967231019929138</v>
+        <v>-1.968018029489788</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.03268990198057311</v>
+        <v>-0.03042016640765752</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3599178516983879</v>
       </c>
       <c r="E81" t="n">
-        <v>1.149168651324534</v>
+        <v>1.160871483491404</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.921004439365218</v>
+        <v>-1.921556133067234</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01251727292198349</v>
+        <v>-0.01034670055370985</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3054002152023864</v>
       </c>
       <c r="E82" t="n">
-        <v>1.209211184725669</v>
+        <v>1.22047801359594</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.947961090836614</v>
+        <v>-1.949165215464409</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01505482002584065</v>
+        <v>0.01735131392381836</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2507832838399829</v>
       </c>
       <c r="E83" t="n">
-        <v>1.297567174080762</v>
+        <v>1.308120972289083</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.844277303278295</v>
+        <v>-1.845123338555994</v>
       </c>
       <c r="G83" t="n">
-        <v>0.008245613307093879</v>
+        <v>0.01017221271156592</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1964873144768637</v>
       </c>
       <c r="E84" t="n">
-        <v>1.295243921857723</v>
+        <v>1.304137129893072</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.783252581945467</v>
+        <v>-1.784310322794981</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01903079232624619</v>
+        <v>0.02081573000980117</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1438525901959552</v>
       </c>
       <c r="E85" t="n">
-        <v>1.405492943170987</v>
+        <v>1.413614881836898</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.75423632645385</v>
+        <v>-1.755935480095294</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01359098224303102</v>
+        <v>0.01504065385374895</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09430658629080077</v>
       </c>
       <c r="E86" t="n">
-        <v>1.650130143041782</v>
+        <v>1.6582599518033</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.650049639786275</v>
+        <v>-1.651805458116086</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03005522225183621</v>
+        <v>0.03125147678402473</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04917470583720602</v>
       </c>
       <c r="E87" t="n">
-        <v>1.589036164867617</v>
+        <v>1.594696337627814</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.529741062268779</v>
+        <v>-1.531833720690548</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05115809661111453</v>
+        <v>0.052228429613599</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.01006424054183326</v>
       </c>
       <c r="E88" t="n">
-        <v>1.73632657816245</v>
+        <v>1.74181990489579</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.330738611772293</v>
+        <v>-1.332507809264635</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08789255486402998</v>
+        <v>0.08892983346496713</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.01993978357412341</v>
       </c>
       <c r="E89" t="n">
-        <v>1.903777028362903</v>
+        <v>1.908972865482316</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.156598580306313</v>
+        <v>-1.158027002658893</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1116067269455461</v>
+        <v>0.1126314133935129</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.03663917123541698</v>
       </c>
       <c r="E90" t="n">
-        <v>1.926874184948869</v>
+        <v>1.93082025088597</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9173996164996113</v>
+        <v>-0.9183810174217423</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1403262798327985</v>
+        <v>0.1413934647970403</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03827768362556521</v>
       </c>
       <c r="E91" t="n">
-        <v>1.965839028296668</v>
+        <v>1.969413625721141</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6665379580136322</v>
+        <v>-0.6671329372414839</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09455695182361709</v>
+        <v>0.09503702765561381</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.02662099721669038</v>
       </c>
       <c r="E92" t="n">
-        <v>1.980760729566598</v>
+        <v>1.984549393591569</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4615896502864336</v>
+        <v>-0.4621027805199777</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1055420312711746</v>
+        <v>0.1061558987284819</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.005313574118308162</v>
       </c>
       <c r="E93" t="n">
-        <v>1.954375447036235</v>
+        <v>1.958060225799199</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2415543692815679</v>
+        <v>-0.2417369554996388</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09117438473194192</v>
+        <v>0.0916072399902996</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02019725554663775</v>
       </c>
       <c r="E94" t="n">
-        <v>1.842692494303466</v>
+        <v>1.845942843788952</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05870371599830958</v>
+        <v>-0.05880917527943672</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06598850477200961</v>
+        <v>0.06636941739936437</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04441718667550603</v>
       </c>
       <c r="E95" t="n">
-        <v>1.791554187071528</v>
+        <v>1.794609358185972</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07285595019824451</v>
+        <v>0.07254114637398437</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05309256611119308</v>
+        <v>0.05368754533904473</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06309746182988585</v>
       </c>
       <c r="E96" t="n">
-        <v>1.664208170062695</v>
+        <v>1.666937519219031</v>
       </c>
       <c r="F96" t="n">
-        <v>0.146474398520599</v>
+        <v>0.1460273770901496</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.00582611763733427</v>
+        <v>-0.005523905966044539</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07322612412176788</v>
       </c>
       <c r="E97" t="n">
-        <v>1.500151305087767</v>
+        <v>1.501983463344961</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1519315228141485</v>
+        <v>0.1508548937351788</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02100910608140071</v>
+        <v>-0.02069902431450447</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07770657913937334</v>
       </c>
       <c r="E98" t="n">
-        <v>1.387264227727203</v>
+        <v>1.38876111991156</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1797743470508363</v>
+        <v>0.1788441017501476</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05914601537139507</v>
+        <v>-0.05876982480140421</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08239507032945589</v>
       </c>
       <c r="E99" t="n">
-        <v>1.248863874429476</v>
+        <v>1.249720140831464</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1831081195497512</v>
+        <v>0.182055100757601</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09842566254345374</v>
+        <v>-0.09824622436362546</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09582220572219037</v>
       </c>
       <c r="E100" t="n">
-        <v>1.090747357618337</v>
+        <v>1.09110151192063</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2375833473188467</v>
+        <v>0.2373094679917404</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1450355167634097</v>
+        <v>-0.1451394020254155</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1169455959269988</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9112273287957512</v>
+        <v>0.9104371711968582</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2200062757912819</v>
+        <v>0.2195529582843473</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1706385117904867</v>
+        <v>-0.1707549892054629</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1528137051779557</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8505331514783966</v>
+        <v>0.8501475167936779</v>
       </c>
       <c r="F102" t="n">
-        <v>0.257608018580034</v>
+        <v>0.2575025592989069</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2084810795047978</v>
+        <v>-0.2086872760096882</v>
       </c>
     </row>
   </sheetData>
